--- a/Visualization/Vipdata.xlsx
+++ b/Visualization/Vipdata.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wt/Documents/配置文档/Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607C41F-EFE9-C445-BFE7-E55045C34300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F70A7-697F-BE43-A470-9D7C96FBEF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-740" windowWidth="38400" windowHeight="21600" xr2:uid="{D3886806-99E3-174E-B014-262D7BA81D0D}"/>
+    <workbookView xWindow="36720" yWindow="-240" windowWidth="38400" windowHeight="19720" activeTab="1" xr2:uid="{D3886806-99E3-174E-B014-262D7BA81D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="DBFB" sheetId="1" r:id="rId1"/>
     <sheet name="NEON" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">NEON!$A$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">NEON!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">NEON!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">NEON!$A$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">NEON!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">NEON!$B$1</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">NEON!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">NEON!$C$1</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">NEON!$C$2:$C$8</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Send(w)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -60,13 +48,37 @@
   <si>
     <t>DR Rate</t>
   </si>
+  <si>
+    <t>Send (k)</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,10 +124,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DBFB每周发送</a:t>
+              <a:t>DBFB This Week Deliver Status</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -178,8 +190,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42492667775140175"/>
-          <c:y val="2.0621776325172397E-2"/>
+          <c:x val="0.14673769192220718"/>
+          <c:y val="2.0621620442489458E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -227,7 +239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Send(w)</c:v>
+                  <c:v>Send (k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,25 +261,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.4</c:v>
+                  <c:v>515.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,16 +326,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.95950000000000002</c:v>
+                  <c:v>0.93659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95209999999999995</c:v>
+                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96250000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -352,7 +349,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F59D-4640-A67D-FD5875B22C4E}"/>
@@ -483,6 +480,8 @@
         <c:axId val="1630125247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -532,6 +531,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1630125247"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -648,7 +648,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>NEON每周发送量</a:t>
+              <a:t>NEON Last Week Deliver Status</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -698,7 +698,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Send(w)</c:v>
+                  <c:v>Send (k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -720,16 +720,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.1</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.3</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -780,7 +780,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -789,7 +789,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -798,16 +810,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.93799999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97040000000000004</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94879999999999998</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92230000000000001</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -821,7 +833,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C910-BE45-A7EC-638FCD33AF26}"/>
@@ -848,7 +860,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$]ddd" c16r2:formatcode2="[$-en-CN,1]ddd" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -887,7 +899,7 @@
         </c:txPr>
         <c:crossAx val="1633791631"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -952,6 +964,8 @@
         <c:axId val="1634073967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -989,6 +1003,7 @@
         <c:crossAx val="1634429375"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="1634429375"/>
@@ -1001,6 +1016,504 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1634073967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>NEON02 Last Week Deliver Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CN" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15814865452382046"/>
+          <c:y val="3.355077266232679E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NEON!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Send (k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>NEON!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF31-854D-9EFA-0536944633F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="585281360"/>
+        <c:axId val="585443536"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NEON!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DR Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NEON!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF31-854D-9EFA-0536944633F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="594819152"/>
+        <c:axId val="594694848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="585281360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$]ddd" c16r2:formatcode2="[$-en-CN,1]ddd" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585443536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585443536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585281360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594694848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594819152"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="594819152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="594694848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1162,6 +1675,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2168,20 +2721,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>120504</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28864</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>570057</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43294</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87168</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324716</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2214,15 +3270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>64205</xdr:rowOff>
+      <xdr:colOff>620889</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>451555</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147461</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>754944</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2242,6 +3298,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>765529</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>758805</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9847C8F2-0D2A-3785-009D-0634B8AAA075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2549,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9571ECBE-3C77-B549-8D89-BF02289F44BE}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2561,63 +3653,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>12.4</v>
+        <v>515.5</v>
       </c>
       <c r="B2" s="1">
         <v>44809</v>
       </c>
       <c r="C2" s="2">
-        <v>0.95950000000000002</v>
+        <v>0.93659999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>39.299999999999997</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1">
         <v>44810</v>
       </c>
       <c r="C3" s="2">
-        <v>0.95209999999999995</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>28.1</v>
-      </c>
       <c r="B4" s="1">
         <v>44811</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>25.5</v>
-      </c>
       <c r="B5" s="1">
         <v>44812</v>
       </c>
       <c r="C5" s="2">
-        <v>0.96250000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
       <c r="B6" s="1">
         <v>44813</v>
       </c>
@@ -2626,9 +3709,6 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
       <c r="B7" s="1">
         <v>44814</v>
       </c>
@@ -2637,9 +3717,6 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
       <c r="B8" s="1">
         <v>44815</v>
       </c>
@@ -2649,7 +3726,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2661,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC98C34-2720-514F-AF72-7FC4251005B3}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2672,91 +3749,164 @@
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43.1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44809</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>0.93799999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>85.1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44810</v>
+        <v>917</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>0.97040000000000004</v>
+        <v>0.82</v>
+      </c>
+      <c r="O3">
+        <v>316</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>71.3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44811</v>
+        <v>894</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>0.94879999999999998</v>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="O4">
+        <v>216</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.84689999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44812</v>
+        <v>819</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>0.92230000000000001</v>
+        <v>0.87</v>
+      </c>
+      <c r="O5">
+        <v>237</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
-        <v>44813</v>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>44814</v>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
-        <v>44815</v>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2764,4 +3914,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92993E40-2A5C-B342-8E77-3B3E9BF0F6D3}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>948</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>390</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2432</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>213</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1234</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>252</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71544247-684B-E94F-A161-FDA7612EC5D9}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="236" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>346</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44851</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>948</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44852</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>390</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44853</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2432</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44854</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>213</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44855</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1234</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>252</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44857</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Visualization/Vipdata.xlsx
+++ b/Visualization/Vipdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wt/Documents/配置文档/Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F70A7-697F-BE43-A470-9D7C96FBEF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEAB1F1-A6C3-484C-8E7B-BA520E2C1DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="-240" windowWidth="38400" windowHeight="19720" activeTab="1" xr2:uid="{D3886806-99E3-174E-B014-262D7BA81D0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19720" activeTab="1" xr2:uid="{D3886806-99E3-174E-B014-262D7BA81D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="DBFB" sheetId="1" r:id="rId1"/>
@@ -723,13 +723,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>917</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>894</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>819</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -813,13 +813,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82199999999999995</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -970,13 +970,15 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1221,13 +1223,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1311,13 +1313,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89</c:v>
+                  <c:v>0.80300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84689999999999999</c:v>
+                  <c:v>0.82469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82899999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1468,13 +1470,15 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3740,13 +3744,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC98C34-2720-514F-AF72-7FC4251005B3}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -3792,62 +3796,62 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>917</v>
+        <v>389</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>0.82</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="O3">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.89</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>894</v>
+        <v>746</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>0.82199999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="O4">
-        <v>216</v>
+        <v>542</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.84689999999999999</v>
+        <v>0.82469999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.82899999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
